--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\マスタ\マスタ@開発\VB\CirclingDrones\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58BC298-8C95-4486-961E-987D991834ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE1551-79FB-4D92-A3CE-B3CACAB216A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1995" windowWidth="24600" windowHeight="13230" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="1485" yWindow="975" windowWidth="19590" windowHeight="13200" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
     <sheet name="開発資料" sheetId="2" r:id="rId2"/>
+    <sheet name="画面イメージ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
@@ -346,6 +347,9 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面イメージ</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8313,6 +8326,187 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323381</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A07041-5CE7-4A57-90F1-3D46AF0E5D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="0"/>
+          <a:ext cx="3752381" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323381</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92429BFB-7956-4AF2-B5B8-94694AAE1CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="5715000"/>
+          <a:ext cx="3752381" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323381</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79636699-AD7A-4955-93FF-24A4979348A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="11430000"/>
+          <a:ext cx="3752381" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323381</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391BA71F-5A40-4178-8436-7AFE542783B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="17145000"/>
+          <a:ext cx="3752381" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9546,7 +9740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA20F4-17C6-4BC5-82ED-97E52927D897}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -9736,4 +9930,30 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6B25E-050E-492A-AE76-AD4626B3C2A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE1551-79FB-4D92-A3CE-B3CACAB216A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F609D-D77B-4A61-B378-4FB39613DE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="975" windowWidth="19590" windowHeight="13200" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="495" yWindow="135" windowWidth="17010" windowHeight="15285" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
     <sheet name="開発資料" sheetId="2" r:id="rId2"/>
     <sheet name="画面イメージ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
@@ -347,9 +347,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>画面イメージ</t>
-  </si>
 </sst>
 </file>
 
@@ -372,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +400,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,15 +547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -582,8 +570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1085850"/>
-          <a:ext cx="2219325" cy="1533525"/>
+          <a:off x="3295650" y="1781175"/>
+          <a:ext cx="2371725" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,14 +607,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>前処理</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -651,7 +639,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -660,277 +648,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\d*.*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>削除</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Iti</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用配列</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を作成</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pIti(m, 0)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>m=1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>～ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>n=0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>～</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\*.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>txrx </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>削除</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>・ドローン毎の周回用ファイル削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -959,7 +679,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -971,38 +691,38 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Txrx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用配列ｸﾘｱ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(pTxrx)</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1023,7 +743,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1035,18 +755,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾄﾞﾛｰﾝ順番用配列</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1055,10 +764,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ｸﾘｱ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>txrx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1067,41 +776,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pOrder_d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>ファイル削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1542,8 +1219,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1559,7 +1236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3381375" y="4876800"/>
-          <a:ext cx="2219325" cy="1819275"/>
+          <a:ext cx="2219325" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,7 +1280,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ドローン毎周回処理</a:t>
+            <a:t>周回処理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1692,6 +1369,50 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>・プロジェクト名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.p2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
@@ -1703,7 +1424,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>power</a:t>
+            <a:t>power.txt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
@@ -1714,7 +1435,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ﾌｧｲﾙ 作成</a:t>
+            <a:t>作成</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -2460,7 +2181,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ドローン毎周回後処理</a:t>
+            <a:t>後処理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -2696,7 +2417,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(ptxrx))</a:t>
+            <a:t>(ptxrx)</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -2964,15 +2685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>328613</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2989,9 +2710,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4486275" y="1133475"/>
-          <a:ext cx="4763" cy="323850"/>
+        <a:xfrm flipH="1">
+          <a:off x="4481513" y="847725"/>
+          <a:ext cx="4762" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3022,13 +2743,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3047,9 +2768,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4533900" y="1905000"/>
-          <a:ext cx="4763" cy="342900"/>
+        <a:xfrm>
+          <a:off x="4481513" y="2828925"/>
+          <a:ext cx="4762" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3411,9 +3132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3429,7 +3150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2228850" y="5229225"/>
-          <a:ext cx="1200150" cy="47625"/>
+          <a:ext cx="1219200" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3460,16 +3181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3483,9 +3204,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4886325" y="5514975"/>
-          <a:ext cx="1381125" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4676775" y="5514975"/>
+          <a:ext cx="1590675" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3573,9 +3294,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -3596,8 +3317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="6200775"/>
-          <a:ext cx="609600" cy="171450"/>
+          <a:off x="5257800" y="6248400"/>
+          <a:ext cx="504825" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3630,8 +3351,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3655,8 +3376,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491038" y="6696075"/>
-          <a:ext cx="0" cy="295275"/>
+          <a:off x="4491038" y="6838950"/>
+          <a:ext cx="0" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3866,9 +3587,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3889,8 +3610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="8801100"/>
-          <a:ext cx="1457325" cy="0"/>
+          <a:off x="4914900" y="8772525"/>
+          <a:ext cx="1495425" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5322,14 +5043,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5344,7 +5065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="704850"/>
+          <a:off x="361950" y="952500"/>
           <a:ext cx="1895474" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -5406,14 +5127,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5428,7 +5149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="676275"/>
+          <a:off x="6457950" y="923925"/>
           <a:ext cx="1895474" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -5484,120 +5205,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A2AB17-502F-450D-B8F8-398A2F7B8B29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457450" y="981075"/>
-          <a:ext cx="933450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288CEC0C-CA03-4850-88F6-D25D915ADAF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5391150" y="981075"/>
-          <a:ext cx="933450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5819,6 +5426,206 @@
         <a:xfrm>
           <a:off x="4933950" y="8915400"/>
           <a:ext cx="1409700" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC082FD-B1EB-45E2-9C6F-6E08BA6AAC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="1114425"/>
+          <a:ext cx="2371725" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ini</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイル取込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C2C829-D956-4CC7-83E9-38D205CFF602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="1266825"/>
+          <a:ext cx="933450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6913CE39-88CB-4286-BCBE-CCD5A530D654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="1276350"/>
+          <a:ext cx="619125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8335,16 +8142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323381</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>151696</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8367,8 +8174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="0"/>
-          <a:ext cx="3752381" cy="5628571"/>
+          <a:off x="9526" y="9525"/>
+          <a:ext cx="3228974" cy="4843461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8379,16 +8186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323381</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151696</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8411,8 +8218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="5715000"/>
-          <a:ext cx="3752381" cy="5628571"/>
+          <a:off x="3581401" y="0"/>
+          <a:ext cx="3228974" cy="4843461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8423,16 +8230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323381</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>151696</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>223836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8455,8 +8262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="11430000"/>
-          <a:ext cx="3752381" cy="5628571"/>
+          <a:off x="19051" y="4905375"/>
+          <a:ext cx="3228974" cy="4843461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8467,16 +8274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323381</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>151696</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8499,8 +8306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="17145000"/>
-          <a:ext cx="3752381" cy="5628571"/>
+          <a:off x="3590926" y="4895850"/>
+          <a:ext cx="3228974" cy="4843461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8812,7 +8619,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9937,23 +9744,21 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.35" right="0.12" top="0.77" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F609D-D77B-4A61-B378-4FB39613DE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38819B3D-681E-4D34-924C-AC7FA152B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="135" windowWidth="17010" windowHeight="15285" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="600" yWindow="2775" windowWidth="19770" windowHeight="11955" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -1984,14 +1984,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2006,7 +2006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="7753351"/>
+          <a:off x="6467475" y="7058026"/>
           <a:ext cx="2057400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -3531,15 +3531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3554,8 +3554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4933950" y="8067675"/>
-          <a:ext cx="1400175" cy="19050"/>
+          <a:off x="4905375" y="7372350"/>
+          <a:ext cx="1428750" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3922,7 +3922,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3938,7 +3938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="342900" y="10582275"/>
-          <a:ext cx="2200275" cy="1076325"/>
+          <a:ext cx="2200275" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4005,6 +4005,33 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new_iti.csv</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4870,14 +4897,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4892,8 +4919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="11772900"/>
-          <a:ext cx="2200275" cy="609600"/>
+          <a:off x="361950" y="11839575"/>
+          <a:ext cx="2200275" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5626,6 +5653,169 @@
         <a:xfrm>
           <a:off x="5743575" y="1276350"/>
           <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート: 記憶データ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25158745-3F8E-41EB-BDFB-173692472653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="7781926"/>
+          <a:ext cx="2057400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_iti.csv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C474630B-6502-4707-8A31-275266FF3036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="8058150"/>
+          <a:ext cx="1495425" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8618,8 +8808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38819B3D-681E-4D34-924C-AC7FA152B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F6F31-88DE-4CDB-970A-396A43ACC565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2775" windowWidth="19770" windowHeight="11955" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
@@ -5743,6 +5743,30 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回の位置情報</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -8808,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F6F31-88DE-4CDB-970A-396A43ACC565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FAADC-5242-4D14-BB54-BE8A254A6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2775" windowWidth="19770" windowHeight="11955" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="375" yWindow="150" windowWidth="19770" windowHeight="11955" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,9 +423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,23 +461,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E2ED0D-366C-44AC-9BBA-C75C5AF0D45A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27D2EA8-3917-486E-A3A6-1614C9381FBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -488,8 +485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="10248900"/>
-          <a:ext cx="2628900" cy="2238375"/>
+          <a:off x="3238500" y="1066800"/>
+          <a:ext cx="2495550" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,88 +522,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>初期状態</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27D2EA8-3917-486E-A3A6-1614C9381FBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3295650" y="1781175"/>
-          <a:ext cx="2371725" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -621,23 +536,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -648,7 +547,90 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・ドローン毎の周回用ファイル削除</a:t>
+            <a:t>・ファイル削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -688,31 +670,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Iti</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイル作成</a:t>
+            <a:t>ドローン設定台数分ループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -743,7 +701,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -755,689 +713,50 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>txrx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイル削除</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 手操作入力 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC09287-C979-48B5-93FB-BAD56C38264B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="1838325"/>
-          <a:ext cx="1943100" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ドローン設定台数：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pSet_d</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>周回設定：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pSet_v</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>d1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>XYZ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>設定値</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 記憶データ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B966B00-4D2D-4FF0-BCD9-397ABF0C0830}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="361950" y="4933950"/>
-          <a:ext cx="1895474" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.p2m</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 記憶データ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF5E1D4-2059-45DD-B41C-A66EBB030A77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6467475" y="5219700"/>
-          <a:ext cx="2028825" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power.txt</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4159C054-6698-42E8-BF5F-ECE3C20F8A22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3381375" y="4876800"/>
-          <a:ext cx="2219325" cy="1962150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>周回処理</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.setup </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>起動</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・プロジェクト名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.p2m</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>取込み</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power.txt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130.CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配列にセット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1465,7 +784,29 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1474,10 +815,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>用配列 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1486,10 +827,40 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pP2m</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p130()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1498,10 +869,59 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>用配列 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配列から飛距離計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1510,9 +930,382 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pP2m(iRow) </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>経路計算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n=0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n=0)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 記憶データ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B966B00-4D2D-4FF0-BCD9-397ABF0C0830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="4572000"/>
+          <a:ext cx="2238375" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.p2m</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 記憶データ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF5E1D4-2059-45DD-B41C-A66EBB030A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="4972050"/>
+          <a:ext cx="2647950" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>power.txt</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4159C054-6698-42E8-BF5F-ECE3C20F8A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="4371975"/>
+          <a:ext cx="2219325" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回処理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1524,7 +1317,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1533,21 +1337,32 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3d_pot_test_plus.exe </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.setup </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1557,7 +1372,7 @@
             </a:rPr>
             <a:t>起動</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1569,7 +1384,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1578,20 +1404,148 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.p2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pP2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pP2m()  </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>出力ファイル リネーム</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>power.txt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1603,10 +1557,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1614,7 +1569,85 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3d_pot_test_plus.exe </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出力ファイル リネーム</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1624,18 +1657,40 @@
             </a:rPr>
             <a:t>周回の間隔設定</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(pSet_Interval)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pSet_Interval</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1726,15 +1781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>447674</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>108716</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1749,8 +1804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161924" y="5781675"/>
-          <a:ext cx="2486026" cy="642116"/>
+          <a:off x="57148" y="5905500"/>
+          <a:ext cx="2743201" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -1786,7 +1841,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1800,7 +1855,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1817,16 +1872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1841,8 +1896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791199" y="6019800"/>
-          <a:ext cx="3038476" cy="809625"/>
+          <a:off x="5895975" y="6086475"/>
+          <a:ext cx="2943225" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -1878,7 +1933,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1887,10 +1942,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:t>dm_vn_</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1899,10 +1957,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1911,32 +1969,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dm_vn_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>130.1K2490GD2route_grid.csv</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1946,7 +1981,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1955,10 +1990,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dm_vn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1967,9 +2002,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_130.1K249GD2route_meter.csv</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:t>130.1K249GD2route_meter.csv</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1983,15 +2018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2006,8 +2041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="7058026"/>
-          <a:ext cx="2057400" cy="590550"/>
+          <a:off x="6391275" y="8448676"/>
+          <a:ext cx="2057400" cy="380124"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -2038,12 +2073,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2052,45 +2087,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>dm</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2100,7 +2100,7 @@
             </a:rPr>
             <a:t>_iti.csv</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2115,13 +2115,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2136,8 +2136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="6991350"/>
-          <a:ext cx="2219325" cy="2066925"/>
+          <a:off x="3381375" y="6905626"/>
+          <a:ext cx="2219325" cy="3343275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2173,7 +2173,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2183,7 +2183,7 @@
             </a:rPr>
             <a:t>後処理</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2191,96 +2191,6 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・経路計算</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Iti</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用配列を作成</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pIti(m, n)</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2301,7 +2211,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2310,57 +2220,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Iti</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>・ファイル 削除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2371,8 +2233,25 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2381,10 +2260,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2396,7 +2275,7 @@
             <a:t>txrx</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2405,30 +2284,40 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>用配列を作成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(ptxrx)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2440,28 +2329,28 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>txrx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイル 削除</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130.CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを配列にセット</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2471,9 +2360,36 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2482,10 +2398,377 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> p130()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配列から飛距離計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・経路計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列を作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pIti(m, n)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2496,7 +2779,234 @@
             <a:t>txrx</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列を作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pTxrx()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タグデータを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sValue_points()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sValue_route()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sValue_grid()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>txrx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2506,7 +3016,61 @@
             </a:rPr>
             <a:t>ファイル 作成</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Txrx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルにコピー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2520,13 +3084,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2542,7 +3106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="2247900"/>
+          <a:off x="3276600" y="3524250"/>
           <a:ext cx="2419350" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2579,7 +3143,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2587,7 +3151,7 @@
             <a:t>周回</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2595,7 +3159,7 @@
             <a:t>(n)</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2611,13 +3175,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2633,7 +3197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="2733675"/>
+          <a:off x="6610350" y="4010025"/>
           <a:ext cx="1524000" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2670,7 +3234,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2685,14 +3249,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2710,9 +3274,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4481513" y="847725"/>
-          <a:ext cx="4762" cy="933450"/>
+        <a:xfrm>
+          <a:off x="4486275" y="847725"/>
+          <a:ext cx="0" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2743,14 +3307,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2769,8 +3333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4481513" y="2828925"/>
-          <a:ext cx="4762" cy="457200"/>
+          <a:off x="4486275" y="3162300"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2802,14 +3366,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2827,8 +3391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="3790950"/>
-          <a:ext cx="4763" cy="1085850"/>
+          <a:off x="4486275" y="4029075"/>
+          <a:ext cx="4763" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2860,13 +3424,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2882,7 +3446,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981326" y="9334500"/>
+          <a:off x="2981326" y="11477625"/>
           <a:ext cx="3019424" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2919,7 +3483,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2927,7 +3491,7 @@
             <a:t>ドローン</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2935,7 +3499,7 @@
             <a:t>(m)</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2951,13 +3515,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>133355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2975,8 +3539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="2981326" y="3352805"/>
-          <a:ext cx="1476374" cy="6310309"/>
+          <a:off x="2981326" y="3305180"/>
+          <a:ext cx="1476374" cy="7310434"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -3012,13 +3576,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3037,8 +3601,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="2500313"/>
-          <a:ext cx="1733550" cy="233362"/>
+          <a:off x="5695950" y="3776663"/>
+          <a:ext cx="1676400" cy="233362"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3070,15 +3634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3089,12 +3653,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="2409825"/>
-          <a:ext cx="933450" cy="0"/>
+          <a:off x="2452687" y="1845058"/>
+          <a:ext cx="881063" cy="2792"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3126,15 +3692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>417512</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>271463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3145,12 +3711,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="5229225"/>
-          <a:ext cx="1219200" cy="257175"/>
+          <a:off x="2170112" y="4872038"/>
+          <a:ext cx="1277938" cy="80962"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3182,15 +3750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3201,12 +3769,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4676775" y="5514975"/>
-          <a:ext cx="1590675" cy="247650"/>
+          <a:off x="4581525" y="5153025"/>
+          <a:ext cx="1466850" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3237,16 +3807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3257,12 +3827,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2505075" y="6210300"/>
-          <a:ext cx="933450" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="2343149" y="5829300"/>
+          <a:ext cx="1143001" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3294,15 +3866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3313,12 +3885,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5257800" y="6248400"/>
-          <a:ext cx="504825" cy="123825"/>
+          <a:off x="4972050" y="5838825"/>
+          <a:ext cx="923925" cy="652463"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3351,14 +3925,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3376,8 +3950,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491038" y="6838950"/>
-          <a:ext cx="0" cy="152400"/>
+          <a:off x="4491038" y="6496050"/>
+          <a:ext cx="0" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3407,16 +3981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3431,8 +4005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="8505825"/>
-          <a:ext cx="1914525" cy="590550"/>
+          <a:off x="6438900" y="10382250"/>
+          <a:ext cx="2181225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -3463,12 +4037,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3477,10 +4051,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3489,36 +4063,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>.txrx</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -3530,16 +4077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3550,12 +4097,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4905375" y="7372350"/>
-          <a:ext cx="1428750" cy="581025"/>
+          <a:off x="4676775" y="8638738"/>
+          <a:ext cx="1714500" cy="305237"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3587,15 +4136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3606,12 +4155,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="106" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914900" y="8772525"/>
-          <a:ext cx="1495425" cy="28575"/>
+        <a:xfrm flipV="1">
+          <a:off x="4953000" y="10563225"/>
+          <a:ext cx="1485900" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3644,13 +4195,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3669,8 +4220,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491038" y="9058275"/>
-          <a:ext cx="0" cy="276225"/>
+          <a:off x="4491038" y="11201401"/>
+          <a:ext cx="0" cy="276224"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3700,1145 +4251,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="正方形/長方形 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8FB769-47C9-44DF-B8C8-BA988C36B45E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171826" y="10258425"/>
-          <a:ext cx="2505074" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>実行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾓｼﾞｭｰﾙ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用ﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CirclingDrones.exe</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3d_pot_test_plus.exe</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DoNothing.exe(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.setup)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6402C3D6-08A4-4F59-A3F2-FCF225647869}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="10582275"/>
-          <a:ext cx="2200275" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>実行ﾓｼﾞｭｰﾙ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用ﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>new_iti.csv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RKA_con.ini</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>true_height.csv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>received_power.txt</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="正方形/長方形 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6803F046-9C21-432E-A1F0-E27A1A0F402E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6029325" y="10248900"/>
-          <a:ext cx="2628900" cy="2247900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RKA_con.ini</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power.txt</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dm_vn_130.1K249GD2route_meter.csv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dm_vn_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>130.1K2490GD2route_grid.csv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_iti.csv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.txrx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="矢印: 右 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9973D9-F4E5-4096-9715-68F53AE70B7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857500" y="11153775"/>
-          <a:ext cx="304800" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 68750"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="矢印: 右 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA78B8F1-910E-426C-9DEE-D1289E4CB81D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="11115675"/>
-          <a:ext cx="304800" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 68750"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線コネクタ 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4611E34-EC84-42CC-B9AC-8267BD64EA36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="104775" y="10106025"/>
-          <a:ext cx="8639175" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C60F000-2285-45F8-A77A-DB9D0047BEDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3381375" y="4057650"/>
-          <a:ext cx="2219325" cy="533401"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾄﾞﾛｰﾝ順番用配列</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>セット</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pOrder_d</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4854,7 +4275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="3752850"/>
+          <a:off x="4733925" y="3990975"/>
           <a:ext cx="1504950" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4895,23 +4316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
+        <xdr:cNvPr id="52" name="フローチャート: 記憶データ 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7058EA8-1CA2-44CB-837C-FF56945B12FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45930D24-275D-4F44-9B38-D185649092FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,8 +4340,1050 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="11839575"/>
-          <a:ext cx="2200275" cy="590550"/>
+          <a:off x="6448424" y="10896600"/>
+          <a:ext cx="2257425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dm_vn_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.txrx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC16826E-070D-423A-9869-2E5B53C97CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="10896600"/>
+          <a:ext cx="1190624" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート: 記憶データ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25158745-3F8E-41EB-BDFB-173692472653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="8972551"/>
+          <a:ext cx="2057400" cy="343337"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_iti.csv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C474630B-6502-4707-8A31-275266FF3036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5067300" y="9144220"/>
+          <a:ext cx="1362075" cy="28355"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="フローチャート: 記憶データ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11198B16-AEC3-4545-A47B-3E397B73CE53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95249" y="1181100"/>
+          <a:ext cx="2828925" cy="1327916"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RKA_con.ini</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ドローン設定台数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pSet_d</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回設定：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pSet_v</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>d1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XYZ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定値</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130.1K2490GD2route_grid.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="フローチャート: 記憶データ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69434BB7-290C-4FC5-B501-E3F6C3422F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2724150"/>
+          <a:ext cx="2390775" cy="394465"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dm_iti.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>225808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF05B02-893B-4324-AC6B-B5063A23998B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4676775" y="2921383"/>
+          <a:ext cx="1571625" cy="2792"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 記憶データ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63420C28-AA21-48FF-8E8B-11FE4F509F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="5267326"/>
+          <a:ext cx="2181226" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true_height.csv</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>received_power.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="フローチャート: 記憶データ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D865CB0-3DEF-4396-B1DE-29A27C826433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="5438775"/>
+          <a:ext cx="2743201" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130.1K2490GD2route_grid.csv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130.1K249GD2route_meter.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398463</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9A0934-2557-4199-89B9-B818DC67ABB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2151063" y="5524501"/>
+          <a:ext cx="1306512" cy="66674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387273B8-A5C0-4F74-8A43-3152A0EDBD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="5619750"/>
+          <a:ext cx="876300" cy="80963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9203C2ED-D90A-4CE2-9C35-FB815B999BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="561975"/>
+          <a:ext cx="2219325" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4956,7 +5419,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4965,10 +5428,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4977,797 +5440,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.p2m</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="フローチャート: 記憶データ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE2CC3C-3111-40BD-BE5A-F3E870799613}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="361950" y="952500"/>
-          <a:ext cx="1895474" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RKA_con.ini</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="フローチャート: 記憶データ 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6245B53C-6075-447B-8F33-62940D839C6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="923925"/>
-          <a:ext cx="1895474" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RKA_con.ini</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8494DB-9D45-442F-81C0-A9CFE618AEF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2514600" y="5962650"/>
-          <a:ext cx="904877" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート: 記憶データ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45930D24-275D-4F44-9B38-D185649092FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6257925" y="9258300"/>
-          <a:ext cx="2533650" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄﾌｫﾙﾀﾞ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dm_vn_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.txrx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC16826E-070D-423A-9869-2E5B53C97CBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4933950" y="8915400"/>
-          <a:ext cx="1409700" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC082FD-B1EB-45E2-9C6F-6E08BA6AAC3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3295650" y="1114425"/>
-          <a:ext cx="2371725" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ini</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ファイル取込み</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C2C829-D956-4CC7-83E9-38D205CFF602}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="1266825"/>
-          <a:ext cx="933450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6913CE39-88CB-4286-BCBE-CCD5A530D654}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5743575" y="1276350"/>
-          <a:ext cx="619125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="フローチャート: 記憶データ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25158745-3F8E-41EB-BDFB-173692472653}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="7781926"/>
-          <a:ext cx="2057400" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>n-1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>周回の位置情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>：ドローン設定台数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5780,7 +5455,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5789,83 +5464,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>new</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_iti.csv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：周回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C474630B-6502-4707-8A31-275266FF3036}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4905375" y="8058150"/>
-          <a:ext cx="1495425" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8830,10 +8465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8841,31 +8476,31 @@
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="10" max="10" width="7.125" customWidth="1"/>
     <col min="15" max="15" width="6.875" customWidth="1"/>
-    <col min="16" max="16" width="1.625" customWidth="1"/>
+    <col min="16" max="16" width="1.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -8873,11 +8508,11 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -8890,11 +8525,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -8907,11 +8542,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -8924,11 +8559,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -8941,11 +8576,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -8958,11 +8593,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -8975,11 +8610,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -8992,11 +8627,11 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -9009,11 +8644,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -9026,11 +8661,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -9043,11 +8678,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -9060,13 +8695,11 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -9079,11 +8712,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -9096,11 +8731,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -9113,11 +8748,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -9130,50 +8765,50 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+    <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
@@ -9181,11 +8816,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -9198,11 +8833,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -9215,11 +8850,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -9232,11 +8867,11 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -9249,11 +8884,11 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -9266,11 +8901,11 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -9283,11 +8918,11 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -9300,11 +8935,11 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -9317,11 +8952,11 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -9334,11 +8969,11 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -9351,11 +8986,11 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -9368,11 +9003,11 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -9385,361 +9020,339 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="6"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="6"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FAADC-5242-4D14-BB54-BE8A254A6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21245D8-0916-4F77-9F43-2383D4E1605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="19770" windowHeight="11955" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
-    <sheet name="開発資料" sheetId="2" r:id="rId2"/>
-    <sheet name="画面イメージ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
@@ -60,291 +58,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme.txt</t>
-  </si>
-  <si>
-    <t>VisualStudio2019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リビルド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバック方法</t>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソース管理</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面開発の場合の処理順番</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカル変数</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パブリック変数</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>frmMain.vb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mduCommon.vb</t>
-  </si>
-  <si>
-    <t>mduMain.vb</t>
-  </si>
-  <si>
-    <t>mduFile.vb</t>
-  </si>
-  <si>
-    <t>frmMain_Load</t>
-  </si>
-  <si>
-    <t>画面表示用モジュール</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインモジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル用モジュール</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通関数用モジュール</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数、配列の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造体</t>
-    <rPh sb="0" eb="3">
-      <t>コウゾウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照、ﾌﾞﾚｲｸﾎﾟｲﾝﾄ/ｳｫｯﾁ/ｲﾐﾃﾞｲﾄｳｨﾝﾄﾞｳ</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照、Gitを使わないため最新版は必ず保存する</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照、Debug/Release</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンバー変数</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dim、プロシージャ内有効</t>
-    <rPh sb="10" eb="11">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照、同一クラス内有効</t>
-    <rPh sb="4" eb="6">
-      <t>ドウイチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照、どこからでも有効</t>
-    <rPh sb="10" eb="12">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「3d_pot_test_plus.exe」は、「CirclingDrones.exe」と同じフォルダに置く</t>
-    <rPh sb="48" eb="49">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「RKA_con.ini」ファイルは、「CirclingDrones.exe」と同じフォルダに置く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロジェクト名.setup」は自宅では実行できないため、代わりに「DoNothing.exe」を実行する</t>
-    <rPh sb="7" eb="8">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1、2次元配列</t>
-    <rPh sb="3" eb="5">
-      <t>ジゲン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pIti(m.n)=sIdo：dvの緯度情報</t>
-    <rPh sb="18" eb="20">
-      <t>イド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブルーチンと関数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mduProc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制御用モジュール</t>
-    <rPh sb="0" eb="3">
-      <t>セイギョヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5501,2668 +5214,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>233112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A910DFD1-4AB4-4D8E-881C-9CC56A1F459A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="42865"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="114300"/>
-          <a:ext cx="3324225" cy="3452562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>218533</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383451FF-5CED-407F-86B5-A69703CFB575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="419100" y="8162925"/>
-          <a:ext cx="11153775" cy="8009983"/>
-          <a:chOff x="419100" y="8162925"/>
-          <a:chExt cx="11153775" cy="8009983"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="図 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6578AA-A827-4204-8115-F9D8C188FCD3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="419100" y="8162925"/>
-            <a:ext cx="11153775" cy="8009983"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="図 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D48EEBC-D0AA-40F8-9CF0-9A5006618023}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:srcRect b="51731"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3390902" y="8162925"/>
-            <a:ext cx="2905124" cy="1023241"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EBDD5C-BCF8-4F0C-9665-20C5B5125D99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="638175" y="16316324"/>
-          <a:ext cx="7010400" cy="3324226"/>
-          <a:chOff x="6057900" y="2381249"/>
-          <a:chExt cx="6600825" cy="3324226"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819C2CFD-EC83-4B4A-AA3B-B34C8CDCCD06}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:srcRect l="131" t="-159" r="9058" b="44881"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6057900" y="2384222"/>
-            <a:ext cx="6600825" cy="3321253"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB2B1AA-A7B5-4983-A7B2-A0A164B6EF0E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:srcRect t="94378"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8331927" y="2638425"/>
-            <a:ext cx="3736817" cy="229220"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA08460-8529-40CB-8E51-05B9DAC14A93}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8201025" y="2381249"/>
-            <a:ext cx="828675" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>140171</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>191695</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>143662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C444A0C-4815-45F5-8047-89C8BD011FC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5188421" y="3638550"/>
-          <a:ext cx="6633299" cy="4363237"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E96895-6E72-45F0-A4EB-02BD03BAD822}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="22536150"/>
-          <a:ext cx="2438400" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA52FD1-8B54-41D2-B019-78F2314B8C66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2162175" y="19250026"/>
-          <a:ext cx="1647825" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA20BD8-D82C-4663-A287-DC048308511F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="11077575"/>
-          <a:ext cx="3181350" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD79A6B-9DE5-4FAF-A4EF-CBD00FCFABA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="14563725"/>
-          <a:ext cx="5581650" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D5C312-8097-47BA-BC70-8BD3F40EC06B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6143625" y="13535025"/>
-          <a:ext cx="2047875" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF23695-CE42-4C79-B61C-65786FDDDB9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4810125" y="9410700"/>
-          <a:ext cx="3476625" cy="3562350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7EF29B-1A56-4E60-81AC-2C25D3720722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3409950" y="8582025"/>
-          <a:ext cx="2886075" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5656547A-84FB-434A-9426-FDB4D2E5DEAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371851" y="8191500"/>
-          <a:ext cx="514350" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314570</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>181085</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF1C9C0-DA12-4AF0-AE6F-87C30649FEE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4981575" y="1771650"/>
-          <a:ext cx="1752845" cy="790685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C84331-357A-46AC-BF49-DAE0BA6DB622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="1990725"/>
-          <a:ext cx="971550" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>599574</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>170759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24686841-5BD2-4CB0-B501-0894B479F6DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810500" y="18697575"/>
-          <a:ext cx="4009524" cy="5523809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D06627-6798-43FB-8AE9-E4ACDEB0771F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8039099" y="19840575"/>
-          <a:ext cx="3495675" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683FEB71-B366-4101-86F6-8E2C901E60A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="514350"/>
-          <a:ext cx="809625" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF3D73F-A4CB-434A-B7FD-767261ACA8F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10058400" y="923926"/>
-          <a:ext cx="1343025" cy="695324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC9CD5A-F57F-4DA7-B9BA-C700D7208DD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect r="33243" b="44510"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7296151" y="5934076"/>
-          <a:ext cx="4267199" cy="2019299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4621</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52738C04-B08E-4827-8165-2DC6618D52F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect r="28518"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4210050" y="5867401"/>
-          <a:ext cx="2676525" cy="1280970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>354459</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CD2751-816E-4024-BF23-180645A8B9A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:srcRect b="33846"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4181475" y="3781425"/>
-          <a:ext cx="7393434" cy="2047875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C465D3A-B5CC-424A-B6EF-E0384192F476}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="4352925"/>
-          <a:ext cx="1314450" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F36EA1-86C3-4B7A-A708-9267693C2A25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6677025" y="3933825"/>
-          <a:ext cx="1314450" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825C8CE2-3DCE-49D7-9ED3-6ECEE5957BD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="4095750"/>
-          <a:ext cx="2209800" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>181112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC406EF1-CD0E-49F8-9CD5-0C6F83F001E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:srcRect t="4807"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4257675" y="7201434"/>
-          <a:ext cx="2200275" cy="837803"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD6E3A6-E27A-4FC7-951C-DBE44CED9282}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4171950" y="6010275"/>
-          <a:ext cx="2886075" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89669E1A-96AC-4A30-BF63-D3802C1BCA79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4257675" y="7191375"/>
-          <a:ext cx="2219325" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC65A51C-5C98-40FC-92D6-F96CA5584833}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="6886575"/>
-          <a:ext cx="3381375" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C432578-50B2-435C-94DE-766B1214E301}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4162425" y="6276976"/>
-          <a:ext cx="1990725" cy="276224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55784CD0-0F36-4401-8248-50CD2123F1A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="131" t="34668" r="44963" b="51064"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="2724150"/>
-          <a:ext cx="4238625" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3293D2B6-1AFE-4F35-9EE9-1E1D36A670F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5181599" y="3067049"/>
-          <a:ext cx="2695575" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>141748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708C470F-D805-42B9-ACF4-F13F55042B30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="6867525"/>
-          <a:ext cx="3943350" cy="656098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>168789</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00650C8-9CFF-4F9A-AA1A-71BBF4F6376B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47624" y="7620000"/>
-          <a:ext cx="4124325" cy="168789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>201364</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F0B030-944D-4164-B9AF-6078BCC5D32B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="7867650"/>
-          <a:ext cx="3086100" cy="191839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2504D72D-1207-47F0-99B0-D2DA8C9824D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457201" y="7629525"/>
-          <a:ext cx="514350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD20B9A-DEA4-45A0-8E1B-E1141AFDBFAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="7886700"/>
-          <a:ext cx="276225" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13C4E86-0D9A-4C33-96A4-8A8C43F3B6B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552826" y="7629525"/>
-          <a:ext cx="609600" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C872A65A-3246-4D2F-8DC2-F852EF190461}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="6877050"/>
-          <a:ext cx="1238250" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024EC0A9-AE56-457B-8512-870318417D52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="7248525"/>
-          <a:ext cx="2905125" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A07041-5CE7-4A57-90F1-3D46AF0E5D67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9526" y="9525"/>
-          <a:ext cx="3228974" cy="4843461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92429BFB-7956-4AF2-B5B8-94694AAE1CDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581401" y="0"/>
-          <a:ext cx="3228974" cy="4843461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>223836</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79636699-AD7A-4955-93FF-24A4979348A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19051" y="4905375"/>
-          <a:ext cx="3228974" cy="4843461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>214311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391BA71F-5A40-4178-8436-7AFE542783B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3590926" y="4895850"/>
-          <a:ext cx="3228974" cy="4843461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9368,224 +6419,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA20F4-17C6-4BC5-82ED-97E52927D897}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="3.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.51" bottom="0.11811023622047245" header="0.24" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;A</oddHeader>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6B25E-050E-492A-AE76-AD4626B3C2A1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.35" right="0.12" top="0.77" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;A</oddHeader>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21245D8-0916-4F77-9F43-2383D4E1605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F900C0A3-6A19-4F89-8E8B-AB1A904D50BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="15420" windowHeight="10335" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -65,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +76,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -128,30 +134,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,16 +777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>430509</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -792,8 +801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="4572000"/>
-          <a:ext cx="2238375" cy="600075"/>
+          <a:off x="6010274" y="4505325"/>
+          <a:ext cx="2116435" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -870,8 +879,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -889,7 +898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6048375" y="4972050"/>
-          <a:ext cx="2647950" cy="361950"/>
+          <a:ext cx="2124075" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -955,7 +964,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1012,7 +1021,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1022,7 +1031,7 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1034,52 +1043,29 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setup </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.setup </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1089,7 +1075,7 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1101,41 +1087,29 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.p2m</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p2m</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1145,7 +1119,7 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1174,7 +1148,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1186,7 +1160,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1198,7 +1172,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1210,7 +1184,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1221,6 +1195,8 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1230,7 +1206,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1241,7 +1217,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1252,7 +1228,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1262,7 +1238,7 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1270,44 +1246,43 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3d_pot_test_plus.exe </a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p2m</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>起動</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のパワーだけ取り出す</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1320,28 +1295,39 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3d_pot_test_plus.exe </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>出力ファイル リネーム</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1349,11 +1335,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1364,17 +1351,42 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>周回の間隔設定</a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>履歴用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルにコピー</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1382,11 +1394,44 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回の間隔設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1397,7 +1442,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -1407,7 +1452,7 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -1494,14 +1539,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1517,7 +1562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57148" y="5905500"/>
+          <a:off x="209550" y="2286000"/>
           <a:ext cx="2743201" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -1570,7 +1615,9 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1587,13 +1634,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1609,7 +1656,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="6086475"/>
+          <a:off x="5895975" y="6324600"/>
           <a:ext cx="2943225" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -1732,13 +1779,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>132475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1754,7 +1801,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="8448676"/>
+          <a:off x="6391275" y="8686801"/>
           <a:ext cx="2057400" cy="380124"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -1827,13 +1874,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1849,8 +1896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="6905626"/>
-          <a:ext cx="2219325" cy="3343275"/>
+          <a:off x="3381375" y="7143751"/>
+          <a:ext cx="2219325" cy="4295775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1933,7 +1980,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・ファイル 削除</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル 削除</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -2759,7 +2830,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>周回用</a:t>
+            <a:t>履歴用</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -3137,13 +3208,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3159,7 +3230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981326" y="11477625"/>
+          <a:off x="2981326" y="11715750"/>
           <a:ext cx="3019424" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3234,7 +3305,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3348,8 +3419,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101983</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -3372,8 +3443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2452687" y="1845058"/>
-          <a:ext cx="881063" cy="2792"/>
+          <a:off x="2452687" y="1662113"/>
+          <a:ext cx="881063" cy="185737"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3404,16 +3475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>417512</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>271463</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3425,13 +3496,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2170112" y="4872038"/>
-          <a:ext cx="1277938" cy="80962"/>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="4681538"/>
+          <a:ext cx="1114424" cy="52387"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3462,73 +3533,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE7AF66-9314-4CAA-BC6D-F561F4363119}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4581525" y="5153025"/>
-          <a:ext cx="1466850" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3546,8 +3559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2343149" y="5829300"/>
-          <a:ext cx="1143001" cy="361950"/>
+          <a:off x="2495551" y="2114550"/>
+          <a:ext cx="857249" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3578,73 +3591,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A273AF01-9CA7-4505-9A09-ECBEEAEF1721}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="15" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4972050" y="5838825"/>
-          <a:ext cx="923925" cy="652463"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3663,7 +3618,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491038" y="6496050"/>
+          <a:off x="4491038" y="6734175"/>
           <a:ext cx="0" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3696,13 +3651,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3718,7 +3673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="10382250"/>
+          <a:off x="6438900" y="10620375"/>
           <a:ext cx="2181225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -3792,13 +3747,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>180538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3816,7 +3771,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4676775" y="8638738"/>
+          <a:off x="4676775" y="8876863"/>
           <a:ext cx="1714500" cy="305237"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3850,13 +3805,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3874,7 +3829,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4953000" y="10563225"/>
+          <a:off x="4953000" y="10801350"/>
           <a:ext cx="1485900" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3908,13 +3863,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3933,7 +3888,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4491038" y="11201401"/>
+          <a:off x="4491038" y="11439526"/>
           <a:ext cx="0" cy="276224"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4031,13 +3986,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4053,7 +4008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448424" y="10896600"/>
+          <a:off x="6448424" y="11134725"/>
           <a:ext cx="2257425" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -4137,73 +4092,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC16826E-070D-423A-9869-2E5B53C97CBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5257800" y="10896600"/>
-          <a:ext cx="1190624" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>143313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4219,7 +4116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="8972551"/>
+          <a:off x="6429375" y="9210676"/>
           <a:ext cx="2057400" cy="343337"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -4291,15 +4188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>209770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4316,8 +4213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5067300" y="9144220"/>
-          <a:ext cx="1362075" cy="28355"/>
+          <a:off x="4972050" y="9382345"/>
+          <a:ext cx="1457325" cy="9305"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4356,8 +4253,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51566</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4373,7 +4270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="95249" y="1181100"/>
-          <a:ext cx="2828925" cy="1327916"/>
+          <a:ext cx="2828925" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -4594,27 +4491,14 @@
             </a:rPr>
             <a:t>設定値</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>130.1K2490GD2route_grid.csv</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4761,13 +4645,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4783,8 +4667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="5267326"/>
-          <a:ext cx="2181226" cy="514350"/>
+          <a:off x="333375" y="5600700"/>
+          <a:ext cx="2181226" cy="419101"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -4865,13 +4749,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4887,7 +4771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="5438775"/>
+          <a:off x="6000750" y="5676900"/>
           <a:ext cx="2743201" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -4957,14 +4841,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>398463</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4980,9 +4864,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2151063" y="5524501"/>
-          <a:ext cx="1306512" cy="66674"/>
+        <a:xfrm flipV="1">
+          <a:off x="2151063" y="5800725"/>
+          <a:ext cx="1382712" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5014,14 +4898,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5039,8 +4923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124450" y="5619750"/>
-          <a:ext cx="876300" cy="80963"/>
+          <a:off x="5229225" y="5819775"/>
+          <a:ext cx="771525" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5134,7 +5018,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5146,7 +5030,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5157,7 +5041,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -5170,7 +5054,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5182,7 +5066,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5193,7 +5077,762 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 下 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4E3432-808C-43E7-B0FA-C746418C88BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="4810125"/>
+          <a:ext cx="590550" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート: 記憶データ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A6DD8B-B719-4476-AF16-6E2C604ADB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="6172200"/>
+          <a:ext cx="2152650" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>power.txt</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A908DA6-0853-403B-8286-F02BC0A5BE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2108200" y="5876925"/>
+          <a:ext cx="1425575" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矢印: 下 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F7333F-1F50-4394-AC90-31A22697D947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="6162675"/>
+          <a:ext cx="590550" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CD5FDD-38B0-4633-8A18-1D9427AF0076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="5667376"/>
+          <a:ext cx="495299" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB59A6C-CA5C-4757-A60A-2CDA8620B84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="9124950"/>
+          <a:ext cx="495299" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0551E5EA-51EC-493C-AD8F-DFD482F985EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="10553700"/>
+          <a:ext cx="495299" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矢印: 下 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F98D5A-E33A-4AA4-8155-800C5B77175B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="10944225"/>
+          <a:ext cx="590550" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEBE04E-73AC-4861-8FD4-B7BBFEAF5678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="5019675"/>
+          <a:ext cx="1790700" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>だけ取り出す</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -5516,894 +6155,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="15" max="15" width="6.875" customWidth="1"/>
-    <col min="16" max="16" width="1.75" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="3" customWidth="1"/>
+    <col min="2" max="9" width="7.875" style="3"/>
+    <col min="10" max="10" width="7.125" style="3" customWidth="1"/>
+    <col min="11" max="14" width="7.875" style="3"/>
+    <col min="15" max="15" width="6.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="1.75" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="7.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6413,7 +7072,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.6692913385826772" bottom="0.11" header="0.31496062992125984" footer="0.11"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F900C0A3-6A19-4F89-8E8B-AB1A904D50BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59FA97-8A22-431E-9BB6-9BF789858431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="15420" windowHeight="10335" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="8265" yWindow="0" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +155,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,13 +186,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -207,8 +207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="1066800"/>
-          <a:ext cx="2495550" cy="1619250"/>
+          <a:off x="3238500" y="1066799"/>
+          <a:ext cx="2495550" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,6 +769,67 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1058,7 +1119,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>setup </a:t>
+            <a:t>DoCalcProc.exe </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -3041,7 +3102,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3060,7 +3121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4486275" y="847725"/>
-          <a:ext cx="0" cy="219075"/>
+          <a:ext cx="0" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3092,8 +3153,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3117,8 +3178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="3162300"/>
-          <a:ext cx="0" cy="361950"/>
+          <a:off x="4486275" y="3324224"/>
+          <a:ext cx="0" cy="200026"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3299,14 +3360,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133355</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>14289</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3323,8 +3384,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="2981326" y="3305180"/>
-          <a:ext cx="1476374" cy="7310434"/>
+          <a:off x="2981326" y="3429005"/>
+          <a:ext cx="1476374" cy="8615358"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -4644,15 +4705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4667,8 +4728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="5600700"/>
-          <a:ext cx="2181226" cy="419101"/>
+          <a:off x="342900" y="5419725"/>
+          <a:ext cx="2181226" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -4702,8 +4763,9 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4722,8 +4784,9 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4733,6 +4796,74 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>received_power.txt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>power.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti.csv</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -4840,15 +4971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>398463</xdr:colOff>
+      <xdr:colOff>407988</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:rowOff>223838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4865,8 +4996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2151063" y="5800725"/>
-          <a:ext cx="1382712" cy="9526"/>
+          <a:off x="2160588" y="5810251"/>
+          <a:ext cx="1277937" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5164,147 +5295,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="フローチャート: 記憶データ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A6DD8B-B719-4476-AF16-6E2C604ADB52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="6172200"/>
-          <a:ext cx="2152650" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power.txt</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A908DA6-0853-403B-8286-F02BC0A5BE50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2108200" y="5876925"/>
-          <a:ext cx="1425575" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6155,914 +6145,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="3" customWidth="1"/>
-    <col min="2" max="9" width="7.875" style="3"/>
-    <col min="10" max="10" width="7.125" style="3" customWidth="1"/>
-    <col min="11" max="14" width="7.875" style="3"/>
-    <col min="15" max="15" width="6.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="1.75" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="7.875" style="3"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="9" width="7.875" style="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="14" width="7.875" style="1"/>
+    <col min="15" max="15" width="6.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.75" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="7.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59FA97-8A22-431E-9BB6-9BF789858431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1CD81F-921D-42AA-9998-309A9B8B92AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="0" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="2295" yWindow="510" windowWidth="21120" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4713,7 +4713,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4729,7 +4729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="342900" y="5419725"/>
-          <a:ext cx="2181226" cy="809625"/>
+          <a:ext cx="2181226" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -4763,42 +4763,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>true_height.csv</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>received_power.txt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -4828,12 +4792,6 @@
             </a:rPr>
             <a:t>power.txt</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4859,6 +4817,34 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
+            </a:rPr>
+            <a:t>sabun.csv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4880,8 +4866,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -4902,8 +4888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="5676900"/>
-          <a:ext cx="2743201" cy="523875"/>
+          <a:off x="6000750" y="5448300"/>
+          <a:ext cx="2743201" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -4937,6 +4923,46 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true_height.csv</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>received_power.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -4973,13 +4999,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>407988</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4995,9 +5021,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2160588" y="5810251"/>
-          <a:ext cx="1277937" cy="14287"/>
+        <a:xfrm>
+          <a:off x="2160588" y="5757863"/>
+          <a:ext cx="1287462" cy="33337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5036,8 +5062,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5055,7 +5081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5229225" y="5819775"/>
-          <a:ext cx="771525" cy="119063"/>
+          <a:ext cx="771525" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5367,14 +5393,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5389,7 +5415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591176" y="5667376"/>
+          <a:off x="5591176" y="5562601"/>
           <a:ext cx="495299" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6147,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1CD81F-921D-42AA-9998-309A9B8B92AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF8A02-F2FB-459D-8F6A-A92DEF73A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="510" windowWidth="21120" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="570" yWindow="480" windowWidth="16005" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -5869,6 +5869,160 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 記憶データ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A7A918-977B-44C1-9438-DBCF4F4280F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="4552950"/>
+          <a:ext cx="2181225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.txrx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446088</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F27332-0842-48D2-95C8-377EBD3CB101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2198688" y="4724400"/>
+          <a:ext cx="1277937" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6174,7 +6328,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF8A02-F2FB-459D-8F6A-A92DEF73A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C751598-A40D-4D0D-96D9-3EB39129E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="480" windowWidth="16005" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="9120" yWindow="555" windowWidth="16005" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -4223,7 +4223,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>new</a:t>
+            <a:t>New</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -4234,7 +4234,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>_iti.csv</a:t>
+            <a:t>_Iti.csv</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
@@ -6023,6 +6023,327 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC160DF6-8DF2-4694-BEAF-E0A98B2B251D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115049" y="4905375"/>
+          <a:ext cx="657225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C9E9E4-EEE6-4B42-AB88-40D6A1BADB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="9134475"/>
+          <a:ext cx="657225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BEA6CA-4D20-4A03-834D-68A36A295E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="5353050"/>
+          <a:ext cx="657225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6327,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C751598-A40D-4D0D-96D9-3EB39129E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2770AB7-D1EA-4CAD-B937-4538BB230FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="555" windowWidth="16005" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -296,16 +296,16 @@
             <a:t>　</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>周回用</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.csv</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -329,7 +329,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Log</a:t>
+            <a:t>.log</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -352,7 +352,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>New_Iti</a:t>
+            <a:t>.txrx</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -6648,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2770AB7-D1EA-4CAD-B937-4538BB230FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B3412-AFBA-45B5-897D-E2D4DDF14EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="1815" yWindow="135" windowWidth="19650" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -6334,6 +6334,381 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75BBBD0-A34D-4750-867E-9700BE487A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257176" y="10210800"/>
+          <a:ext cx="1752600" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクトフォルダ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>csv,log,txrx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b2\studyarea</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Debug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モード：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b2\Debug</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>\dm_vn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p2m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -6648,8 +7023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B3412-AFBA-45B5-897D-E2D4DDF14EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B699727-4638-4985-9BD3-0F54F68C7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="135" windowWidth="19650" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="3360" yWindow="210" windowWidth="22980" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -899,18 +899,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ﾌﾟﾛｼﾞｪｸﾄ名</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -920,7 +908,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>.p2m</a:t>
+            <a:t>*power*.p2m(9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌｧｲﾙ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
@@ -5745,13 +5757,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5766,8 +5778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="5019675"/>
-          <a:ext cx="1790700" cy="285750"/>
+          <a:off x="7115175" y="4895850"/>
+          <a:ext cx="1790700" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5844,7 +5856,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>だけ取り出す</a:t>
+            <a:t>だけ取り出し</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>昇順にして</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌｧｲﾙをﾏｰｼﾞする</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -6033,8 +6093,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6052,7 +6112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6115049" y="4905375"/>
-          <a:ext cx="657225" cy="285750"/>
+          <a:ext cx="981076" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6084,7 +6144,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -6093,233 +6153,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>exe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パス</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C9E9E4-EEE6-4B42-AB88-40D6A1BADB7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6534150" y="9134475"/>
-          <a:ext cx="657225" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>exe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パス</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BEA6CA-4D20-4A03-834D-68A36A295E48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="5353050"/>
-          <a:ext cx="657225" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>exe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パス</a:t>
+            <a:t>実行ﾌｧｲﾙパス</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -6709,6 +6543,196 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8840A4-7F1D-4F1D-8664-3A2EA35E1107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="5353050"/>
+          <a:ext cx="981076" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実行ﾌｧｲﾙパス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E034F-A110-4E30-9FB3-F5B4D4152C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="9134475"/>
+          <a:ext cx="981076" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実行ﾌｧｲﾙパス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -7023,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B699727-4638-4985-9BD3-0F54F68C7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC772877-0D9B-4050-8E29-4966DC9C4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="210" windowWidth="22980" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="3510" yWindow="120" windowWidth="18810" windowHeight="15000" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -2279,7 +2279,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> p130()</a:t>
+            <a:t> p130() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p130_2()</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -6743,6 +6755,392 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417AD83E-E8DF-45E5-9CBE-7750FBBA537B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="7391400"/>
+          <a:ext cx="1752600" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p130()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が倍用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p130_2()</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F00EE99-0DA7-41E7-8B7D-767C981229CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="7419975"/>
+          <a:ext cx="1352550" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AEC46B-9BB2-4EB7-BDE7-3F281AC571F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2124075" y="8210551"/>
+          <a:ext cx="1362075" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7047,8 +7445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC772877-0D9B-4050-8E29-4966DC9C4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B55198-2A41-4F31-9368-9A78A124DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="120" windowWidth="18810" windowHeight="15000" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="7785" yWindow="390" windowWidth="20640" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1920,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dm</a:t>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>m</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -2281,18 +2293,6 @@
             </a:rPr>
             <a:t> p130() </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>p130_2()</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2713,51 +2713,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>タグデータを</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成</a:t>
+            <a:t>タグデータを作成</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -2791,30 +2747,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>sValue_points()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sValue_route()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4139,7 +4071,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dm_vn_</a:t>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
@@ -4593,14 +4573,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184915</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4615,7 +4595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="2724150"/>
+          <a:off x="6248400" y="2343150"/>
           <a:ext cx="2390775" cy="394465"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
@@ -4661,7 +4641,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dm_iti.csv</a:t>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_iti.csv</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4671,15 +4675,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225808</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4696,8 +4700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4676775" y="2921383"/>
-          <a:ext cx="1571625" cy="2792"/>
+          <a:off x="4695825" y="2540383"/>
+          <a:ext cx="1552575" cy="355217"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6197,13 +6201,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6218,7 +6222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257176" y="10210800"/>
+          <a:off x="257176" y="10306050"/>
           <a:ext cx="1752600" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6505,7 +6509,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>\dm_vn</a:t>
+            <a:t>\d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_v</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7141,6 +7181,380 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="フローチャート: 記憶データ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578DE6B1-3947-4D48-AEE1-64CE2070EC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="9839325"/>
+          <a:ext cx="2181225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x_y_sabun.csv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236538</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F756633-4DE5-4B04-8ACD-17D39B3F5632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1989138" y="10020300"/>
+          <a:ext cx="1430337" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="フローチャート: 記憶データ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4875C98-0929-47DD-9394-99EF2FBEA59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="2828925"/>
+          <a:ext cx="2390775" cy="394465"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New_Iti.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD25703-9783-4286-A6B8-0AC4FC1DBF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4829175" y="3026158"/>
+          <a:ext cx="1457325" cy="78992"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900F1B32-890C-498C-9DFD-58026F9BE59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="2771775"/>
+          <a:ext cx="981076" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実行ﾌｧｲﾙパス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7445,8 +7859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B55198-2A41-4F31-9368-9A78A124DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387BA2C-F895-444C-BB94-3AE4C9B3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="390" windowWidth="20640" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20640" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -7547,6 +7547,516 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD3CFED-BECF-48A6-8E80-23908452EDF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="9267824"/>
+          <a:ext cx="866775" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n-1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x=(x-1079)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y=(y-537)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z=(z-10)/5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8FF9A7-1E52-4677-9D54-A5F31998D1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="9858375"/>
+          <a:ext cx="1095375" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n-1)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x=x+1079</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y=y+537</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>差分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(x,y)+10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A402A509-10EB-4A6C-B143-74A635BE1FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="2895600"/>
+          <a:ext cx="866775" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n-1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x=(x-1079)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y=(y-537)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z=(z-10)/5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -7859,8 +8369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/CirclingDrones処理フロー.xlsx
+++ b/Doc/CirclingDrones処理フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387BA2C-F895-444C-BB94-3AE4C9B3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B1FD2-5348-4071-B22A-EC1DA669358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20640" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="4845" yWindow="855" windowWidth="17205" windowHeight="14310" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="CirclingDrones 制御処理フロー" sheetId="1" r:id="rId1"/>
@@ -7924,7 +7924,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7940,7 +7940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7543800" y="2895600"/>
-          <a:ext cx="866775" cy="771525"/>
+          <a:ext cx="866775" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8001,7 +8001,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(n-1)</a:t>
+            <a:t>(n=0)</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -8022,7 +8022,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>x=(x-1079)/5</a:t>
+            <a:t>x=4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8037,7 +8037,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>y=(y-537)/5</a:t>
+            <a:t>y=46</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8052,7 +8052,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>z=(z-10)/5</a:t>
+            <a:t>z=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面の値</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -8369,8 +8384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32106DF-7A84-4DF9-A827-BEB9A167844E}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
